--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SetRecordInt.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SetRecordInt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4852F94-7885-4DD7-A12B-0DB1E672A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7349C-760E-4760-9AD3-98D473ADBBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>RecordKeyInt2</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -716,13 +716,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -791,10 +791,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -818,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
@@ -827,10 +827,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
@@ -850,10 +850,10 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8">
         <v>8</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SetRecordInt.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SetRecordInt.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A7349C-760E-4760-9AD3-98D473ADBBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025590EB-50F2-4CA9-BE04-AF1C678EF12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -196,6 +185,26 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetRecordInt_PlayerAoe2_Set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetRecordInt_PlayerAoe2_Add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮2高爆弹判定初始化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮2高爆弹判定+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -335,6 +344,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -614,23 +626,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="9" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +684,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,7 +713,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -741,7 +754,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -772,7 +785,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -813,7 +826,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -836,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -857,6 +870,40 @@
       </c>
       <c r="I7" s="8">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
